--- a/data/brazil-macro.xlsx
+++ b/data/brazil-macro.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranjal/Projects/rstudio/Econometrics-in-R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDF28764-4EBE-6444-87FD-45C4B973BCD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1A615ACB-5B3F-E744-9924-F9621C9D2772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -477,13 +478,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L335"/>
+  <dimension ref="A1:I335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K65536"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="20.6640625" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="256" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -588,15 +593,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -624,14 +626,8 @@
       <c r="I19" t="s">
         <v>22</v>
       </c>
-      <c r="K19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>34669</v>
       </c>
@@ -647,14 +643,8 @@
       <c r="H20" s="6">
         <v>4.5670200000000003</v>
       </c>
-      <c r="K20" s="1">
-        <v>35065</v>
-      </c>
-      <c r="L20" s="6">
-        <v>59.234929999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>34700</v>
       </c>
@@ -676,14 +666,8 @@
       <c r="H21" s="6">
         <v>4.1256399999999998</v>
       </c>
-      <c r="K21" s="1">
-        <v>35156</v>
-      </c>
-      <c r="L21" s="6">
-        <v>59.834530000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>34731</v>
       </c>
@@ -705,14 +689,8 @@
       <c r="H22" s="6">
         <v>4.6763399999999997</v>
       </c>
-      <c r="K22" s="1">
-        <v>35247</v>
-      </c>
-      <c r="L22" s="6">
-        <v>62.130420000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>34759</v>
       </c>
@@ -734,14 +712,8 @@
       <c r="H23" s="6">
         <v>4.1304400000000001</v>
       </c>
-      <c r="K23" s="1">
-        <v>35339</v>
-      </c>
-      <c r="L23" s="6">
-        <v>61.53416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>34790</v>
       </c>
@@ -763,14 +735,8 @@
       <c r="H24" s="6">
         <v>4.1720899999999999</v>
       </c>
-      <c r="K24" s="1">
-        <v>35431</v>
-      </c>
-      <c r="L24" s="6">
-        <v>62.184100000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>34820</v>
       </c>
@@ -792,14 +758,8 @@
       <c r="H25" s="6">
         <v>4.0217000000000001</v>
       </c>
-      <c r="K25" s="1">
-        <v>35521</v>
-      </c>
-      <c r="L25" s="6">
-        <v>62.461080000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>34851</v>
       </c>
@@ -821,14 +781,8 @@
       <c r="H26" s="6">
         <v>4.3265700000000002</v>
       </c>
-      <c r="K26" s="1">
-        <v>35612</v>
-      </c>
-      <c r="L26" s="6">
-        <v>63.2958</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>34881</v>
       </c>
@@ -850,14 +804,8 @@
       <c r="H27" s="6">
         <v>4.4710799999999997</v>
       </c>
-      <c r="K27" s="1">
-        <v>35704</v>
-      </c>
-      <c r="L27" s="6">
-        <v>63.823140000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>34912</v>
       </c>
@@ -879,14 +827,8 @@
       <c r="H28" s="6">
         <v>4.50685</v>
       </c>
-      <c r="K28" s="1">
-        <v>35796</v>
-      </c>
-      <c r="L28" s="6">
-        <v>62.575659999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>34943</v>
       </c>
@@ -908,14 +850,8 @@
       <c r="H29" s="6">
         <v>4.61334</v>
       </c>
-      <c r="K29" s="1">
-        <v>35886</v>
-      </c>
-      <c r="L29" s="6">
-        <v>63.57893</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>34973</v>
       </c>
@@ -937,14 +873,8 @@
       <c r="H30" s="6">
         <v>4.9583899999999996</v>
       </c>
-      <c r="K30" s="1">
-        <v>35977</v>
-      </c>
-      <c r="L30" s="6">
-        <v>63.611609999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>35004</v>
       </c>
@@ -966,14 +896,8 @@
       <c r="H31" s="6">
         <v>5.3478399999999997</v>
       </c>
-      <c r="K31" s="1">
-        <v>36069</v>
-      </c>
-      <c r="L31" s="6">
-        <v>62.881950000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>35034</v>
       </c>
@@ -995,14 +919,8 @@
       <c r="H32" s="6">
         <v>5.6969099999999999</v>
       </c>
-      <c r="K32" s="1">
-        <v>36161</v>
-      </c>
-      <c r="L32" s="6">
-        <v>63.006010000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>35065</v>
       </c>
@@ -1024,14 +942,8 @@
       <c r="H33" s="6">
         <v>5.3416199999999998</v>
       </c>
-      <c r="K33" s="1">
-        <v>36251</v>
-      </c>
-      <c r="L33" s="6">
-        <v>63.299729999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>35096</v>
       </c>
@@ -1053,14 +965,8 @@
       <c r="H34" s="6">
         <v>5.4338600000000001</v>
       </c>
-      <c r="K34" s="1">
-        <v>36342</v>
-      </c>
-      <c r="L34" s="6">
-        <v>63.322209999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>35125</v>
       </c>
@@ -1082,14 +988,8 @@
       <c r="H35" s="6">
         <v>5.5205599999999997</v>
       </c>
-      <c r="K35" s="1">
-        <v>36434</v>
-      </c>
-      <c r="L35" s="6">
-        <v>64.220659999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35156</v>
       </c>
@@ -1111,14 +1011,8 @@
       <c r="H36" s="6">
         <v>5.7203200000000001</v>
       </c>
-      <c r="K36" s="1">
-        <v>36526</v>
-      </c>
-      <c r="L36" s="6">
-        <v>64.902979999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35186</v>
       </c>
@@ -1140,14 +1034,8 @@
       <c r="H37" s="6">
         <v>5.7023700000000002</v>
       </c>
-      <c r="K37" s="1">
-        <v>36617</v>
-      </c>
-      <c r="L37" s="6">
-        <v>65.806939999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>35217</v>
       </c>
@@ -1169,14 +1057,8 @@
       <c r="H38" s="6">
         <v>5.7275799999999997</v>
       </c>
-      <c r="K38" s="1">
-        <v>36708</v>
-      </c>
-      <c r="L38" s="6">
-        <v>66.603870000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>35247</v>
       </c>
@@ -1198,14 +1080,8 @@
       <c r="H39" s="6">
         <v>5.7992600000000003</v>
       </c>
-      <c r="K39" s="1">
-        <v>36800</v>
-      </c>
-      <c r="L39" s="6">
-        <v>67.421340000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>35278</v>
       </c>
@@ -1227,14 +1103,8 @@
       <c r="H40" s="6">
         <v>5.90245</v>
       </c>
-      <c r="K40" s="1">
-        <v>36892</v>
-      </c>
-      <c r="L40" s="6">
-        <v>67.644750000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>35309</v>
       </c>
@@ -1256,14 +1126,8 @@
       <c r="H41" s="6">
         <v>6.1036400000000004</v>
       </c>
-      <c r="K41" s="1">
-        <v>36982</v>
-      </c>
-      <c r="L41" s="6">
-        <v>67.322630000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>35339</v>
       </c>
@@ -1288,14 +1152,8 @@
       <c r="H42" s="6">
         <v>5.8460599999999996</v>
       </c>
-      <c r="K42" s="1">
-        <v>37073</v>
-      </c>
-      <c r="L42" s="6">
-        <v>66.989429999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>35370</v>
       </c>
@@ -1320,14 +1178,8 @@
       <c r="H43" s="6">
         <v>5.9058200000000003</v>
       </c>
-      <c r="K43" s="1">
-        <v>37165</v>
-      </c>
-      <c r="L43" s="6">
-        <v>66.775149999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>35400</v>
       </c>
@@ -1352,14 +1204,8 @@
       <c r="H44" s="6">
         <v>5.98855</v>
       </c>
-      <c r="K44" s="1">
-        <v>37257</v>
-      </c>
-      <c r="L44" s="6">
-        <v>68.410169999999994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>35431</v>
       </c>
@@ -1384,14 +1230,8 @@
       <c r="H45" s="6">
         <v>7.5457299999999998</v>
       </c>
-      <c r="K45" s="1">
-        <v>37347</v>
-      </c>
-      <c r="L45" s="6">
-        <v>68.636650000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>35462</v>
       </c>
@@ -1416,14 +1256,8 @@
       <c r="H46" s="6">
         <v>8.5219199999999997</v>
       </c>
-      <c r="K46" s="1">
-        <v>37438</v>
-      </c>
-      <c r="L46" s="6">
-        <v>69.551670000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>35490</v>
       </c>
@@ -1448,14 +1282,8 @@
       <c r="H47" s="6">
         <v>9.0088299999999997</v>
       </c>
-      <c r="K47" s="1">
-        <v>37530</v>
-      </c>
-      <c r="L47" s="6">
-        <v>70.252510000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>35521</v>
       </c>
@@ -1480,14 +1308,8 @@
       <c r="H48" s="6">
         <v>8.9405900000000003</v>
       </c>
-      <c r="K48" s="1">
-        <v>37622</v>
-      </c>
-      <c r="L48" s="6">
-        <v>69.958939999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>35551</v>
       </c>
@@ -1512,14 +1334,8 @@
       <c r="H49" s="6">
         <v>9.2180499999999999</v>
       </c>
-      <c r="K49" s="1">
-        <v>37712</v>
-      </c>
-      <c r="L49" s="6">
-        <v>69.367279999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>35582</v>
       </c>
@@ -1544,14 +1360,8 @@
       <c r="H50" s="6">
         <v>9.2631300000000003</v>
       </c>
-      <c r="K50" s="1">
-        <v>37803</v>
-      </c>
-      <c r="L50" s="6">
-        <v>70.010769999999994</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>35612</v>
       </c>
@@ -1576,14 +1386,8 @@
       <c r="H51" s="6">
         <v>8.9619199999999992</v>
       </c>
-      <c r="K51" s="1">
-        <v>37895</v>
-      </c>
-      <c r="L51" s="6">
-        <v>70.733350000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>35643</v>
       </c>
@@ -1608,14 +1412,8 @@
       <c r="H52" s="6">
         <v>9.4055800000000005</v>
       </c>
-      <c r="K52" s="1">
-        <v>37987</v>
-      </c>
-      <c r="L52" s="6">
-        <v>71.718860000000006</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>35674</v>
       </c>
@@ -1640,14 +1438,8 @@
       <c r="H53" s="6">
         <v>9.56372</v>
       </c>
-      <c r="K53" s="1">
-        <v>38078</v>
-      </c>
-      <c r="L53" s="6">
-        <v>73.709689999999995</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>35704</v>
       </c>
@@ -1672,14 +1464,8 @@
       <c r="H54" s="6">
         <v>9.9110899999999997</v>
       </c>
-      <c r="K54" s="1">
-        <v>38169</v>
-      </c>
-      <c r="L54" s="6">
-        <v>74.627920000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>35735</v>
       </c>
@@ -1704,14 +1490,8 @@
       <c r="H55" s="6">
         <v>9.6082400000000003</v>
       </c>
-      <c r="K55" s="1">
-        <v>38261</v>
-      </c>
-      <c r="L55" s="6">
-        <v>75.195689999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>35765</v>
       </c>
@@ -1736,14 +1516,8 @@
       <c r="H56" s="6">
         <v>9.5718200000000007</v>
       </c>
-      <c r="K56" s="1">
-        <v>38353</v>
-      </c>
-      <c r="L56" s="6">
-        <v>75.828140000000005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>35796</v>
       </c>
@@ -1768,14 +1542,8 @@
       <c r="H57" s="6">
         <v>9.6856799999999996</v>
       </c>
-      <c r="K57" s="1">
-        <v>38443</v>
-      </c>
-      <c r="L57" s="6">
-        <v>76.726070000000007</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>35827</v>
       </c>
@@ -1800,14 +1568,8 @@
       <c r="H58" s="6">
         <v>10.080539999999999</v>
       </c>
-      <c r="K58" s="1">
-        <v>38534</v>
-      </c>
-      <c r="L58" s="6">
-        <v>76.220650000000006</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>35855</v>
       </c>
@@ -1832,14 +1594,8 @@
       <c r="H59" s="6">
         <v>10.13874</v>
       </c>
-      <c r="K59" s="1">
-        <v>38626</v>
-      </c>
-      <c r="L59" s="6">
-        <v>77.203509999999994</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>35886</v>
       </c>
@@ -1864,14 +1620,8 @@
       <c r="H60" s="6">
         <v>10.454980000000001</v>
       </c>
-      <c r="K60" s="1">
-        <v>38718</v>
-      </c>
-      <c r="L60" s="6">
-        <v>78.443290000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>35916</v>
       </c>
@@ -1896,14 +1646,8 @@
       <c r="H61" s="6">
         <v>10.60975</v>
       </c>
-      <c r="K61" s="1">
-        <v>38808</v>
-      </c>
-      <c r="L61" s="6">
-        <v>78.698040000000006</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>35947</v>
       </c>
@@ -1928,14 +1672,8 @@
       <c r="H62" s="6">
         <v>10.84966</v>
       </c>
-      <c r="K62" s="1">
-        <v>38899</v>
-      </c>
-      <c r="L62" s="6">
-        <v>80.005430000000004</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>35977</v>
       </c>
@@ -1961,14 +1699,8 @@
       <c r="H63" s="6">
         <v>10.91949</v>
       </c>
-      <c r="K63" s="1">
-        <v>38991</v>
-      </c>
-      <c r="L63" s="6">
-        <v>80.948210000000003</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>36008</v>
       </c>
@@ -1994,14 +1726,8 @@
       <c r="H64" s="6">
         <v>10.9725</v>
       </c>
-      <c r="K64" s="1">
-        <v>39083</v>
-      </c>
-      <c r="L64" s="6">
-        <v>82.461089999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>36039</v>
       </c>
@@ -2027,14 +1753,8 @@
       <c r="H65" s="6">
         <v>10.761760000000001</v>
       </c>
-      <c r="K65" s="1">
-        <v>39173</v>
-      </c>
-      <c r="L65" s="6">
-        <v>83.848269999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>36069</v>
       </c>
@@ -2060,14 +1780,8 @@
       <c r="H66" s="6">
         <v>10.77915</v>
       </c>
-      <c r="K66" s="1">
-        <v>39264</v>
-      </c>
-      <c r="L66" s="6">
-        <v>84.715860000000006</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>36100</v>
       </c>
@@ -2093,14 +1807,8 @@
       <c r="H67" s="6">
         <v>11.05739</v>
       </c>
-      <c r="K67" s="1">
-        <v>39356</v>
-      </c>
-      <c r="L67" s="6">
-        <v>85.988280000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>36130</v>
       </c>
@@ -2126,14 +1834,8 @@
       <c r="H68" s="6">
         <v>10.273009999999999</v>
       </c>
-      <c r="K68" s="1">
-        <v>39448</v>
-      </c>
-      <c r="L68" s="6">
-        <v>87.050520000000006</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>36161</v>
       </c>
@@ -2159,14 +1861,8 @@
       <c r="H69" s="6">
         <v>11.33526</v>
       </c>
-      <c r="K69" s="1">
-        <v>39539</v>
-      </c>
-      <c r="L69" s="6">
-        <v>88.890150000000006</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>36192</v>
       </c>
@@ -2192,14 +1888,8 @@
       <c r="H70" s="6">
         <v>11.26914</v>
       </c>
-      <c r="K70" s="1">
-        <v>39630</v>
-      </c>
-      <c r="L70" s="6">
-        <v>90.287499999999994</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>36220</v>
       </c>
@@ -2224,14 +1914,8 @@
       <c r="H71" s="6">
         <v>11.083959999999999</v>
       </c>
-      <c r="K71" s="1">
-        <v>39722</v>
-      </c>
-      <c r="L71" s="6">
-        <v>86.874660000000006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>36251</v>
       </c>
@@ -2256,14 +1940,8 @@
       <c r="H72" s="6">
         <v>10.929639999999999</v>
       </c>
-      <c r="K72" s="1">
-        <v>39814</v>
-      </c>
-      <c r="L72" s="6">
-        <v>85.671880000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>36281</v>
       </c>
@@ -2288,14 +1966,8 @@
       <c r="H73" s="6">
         <v>11.01971</v>
       </c>
-      <c r="K73" s="1">
-        <v>39904</v>
-      </c>
-      <c r="L73" s="6">
-        <v>87.212469999999996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>36312</v>
       </c>
@@ -2320,14 +1992,8 @@
       <c r="H74" s="6">
         <v>11.346730000000001</v>
       </c>
-      <c r="K74" s="1">
-        <v>39995</v>
-      </c>
-      <c r="L74" s="6">
-        <v>89.258160000000004</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>36342</v>
       </c>
@@ -2353,14 +2019,8 @@
       <c r="H75" s="6">
         <v>11.82483</v>
       </c>
-      <c r="K75" s="1">
-        <v>40087</v>
-      </c>
-      <c r="L75" s="6">
-        <v>91.534610000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>36373</v>
       </c>
@@ -2385,14 +2045,8 @@
       <c r="H76" s="6">
         <v>11.7562</v>
       </c>
-      <c r="K76" s="1">
-        <v>40179</v>
-      </c>
-      <c r="L76" s="6">
-        <v>93.489419999999996</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>36404</v>
       </c>
@@ -2417,14 +2071,8 @@
       <c r="H77" s="6">
         <v>11.51352</v>
       </c>
-      <c r="K77" s="1">
-        <v>40269</v>
-      </c>
-      <c r="L77" s="6">
-        <v>94.631860000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>36434</v>
       </c>
@@ -2449,14 +2097,8 @@
       <c r="H78" s="6">
         <v>12.055339999999999</v>
       </c>
-      <c r="K78" s="1">
-        <v>40360</v>
-      </c>
-      <c r="L78" s="6">
-        <v>95.478859999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>36465</v>
       </c>
@@ -2481,14 +2123,8 @@
       <c r="H79" s="6">
         <v>12.36248</v>
       </c>
-      <c r="K79" s="1">
-        <v>40452</v>
-      </c>
-      <c r="L79" s="6">
-        <v>96.806169999999995</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>36495</v>
       </c>
@@ -2513,14 +2149,8 @@
       <c r="H80" s="6">
         <v>12.74216</v>
       </c>
-      <c r="K80" s="1">
-        <v>40544</v>
-      </c>
-      <c r="L80" s="6">
-        <v>98.179029999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>36526</v>
       </c>
@@ -2545,14 +2175,8 @@
       <c r="H81" s="6">
         <v>12.883839999999999</v>
       </c>
-      <c r="K81" s="1">
-        <v>40634</v>
-      </c>
-      <c r="L81" s="6">
-        <v>99.12576</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>36557</v>
       </c>
@@ -2577,14 +2201,8 @@
       <c r="H82" s="6">
         <v>12.7569</v>
       </c>
-      <c r="K82" s="1">
-        <v>40725</v>
-      </c>
-      <c r="L82" s="6">
-        <v>98.915819999999997</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>36586</v>
       </c>
@@ -2609,14 +2227,8 @@
       <c r="H83" s="6">
         <v>13.017289999999999</v>
       </c>
-      <c r="K83" s="1">
-        <v>40817</v>
-      </c>
-      <c r="L83" s="6">
-        <v>99.799319999999994</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>36617</v>
       </c>
@@ -2641,14 +2253,8 @@
       <c r="H84" s="6">
         <v>13.241709999999999</v>
       </c>
-      <c r="K84" s="1">
-        <v>40909</v>
-      </c>
-      <c r="L84" s="6">
-        <v>98.412220000000005</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>36647</v>
       </c>
@@ -2673,14 +2279,8 @@
       <c r="H85" s="6">
         <v>13.37984</v>
       </c>
-      <c r="K85" s="1">
-        <v>41000</v>
-      </c>
-      <c r="L85" s="6">
-        <v>100.16159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>36678</v>
       </c>
@@ -2705,14 +2305,8 @@
       <c r="H86" s="6">
         <v>13.54068</v>
       </c>
-      <c r="K86" s="1">
-        <v>41091</v>
-      </c>
-      <c r="L86" s="6">
-        <v>101.91661000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>36708</v>
       </c>
@@ -2737,14 +2331,8 @@
       <c r="H87" s="6">
         <v>13.96716</v>
       </c>
-      <c r="K87" s="1">
-        <v>41183</v>
-      </c>
-      <c r="L87" s="6">
-        <v>101.88936</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>36739</v>
       </c>
@@ -2769,14 +2357,8 @@
       <c r="H88" s="6">
         <v>14.03069</v>
       </c>
-      <c r="K88" s="1">
-        <v>41275</v>
-      </c>
-      <c r="L88" s="6">
-        <v>102.43012</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>36770</v>
       </c>
@@ -2801,14 +2383,8 @@
       <c r="H89" s="6">
         <v>14.500310000000001</v>
       </c>
-      <c r="K89" s="1">
-        <v>41365</v>
-      </c>
-      <c r="L89" s="6">
-        <v>103.93911</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>36800</v>
       </c>
@@ -2833,14 +2409,8 @@
       <c r="H90" s="6">
         <v>14.901389999999999</v>
       </c>
-      <c r="K90" s="1">
-        <v>41456</v>
-      </c>
-      <c r="L90" s="6">
-        <v>104.38033</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>36831</v>
       </c>
@@ -2865,14 +2435,8 @@
       <c r="H91" s="6">
         <v>15.06386</v>
       </c>
-      <c r="K91" s="1">
-        <v>41548</v>
-      </c>
-      <c r="L91" s="6">
-        <v>104.52038</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>36861</v>
       </c>
@@ -2897,14 +2461,8 @@
       <c r="H92" s="6">
         <v>14.99236</v>
       </c>
-      <c r="K92" s="1">
-        <v>41640</v>
-      </c>
-      <c r="L92" s="6">
-        <v>105.4383</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>36892</v>
       </c>
@@ -2929,14 +2487,8 @@
       <c r="H93" s="6">
         <v>15.319699999999999</v>
       </c>
-      <c r="K93" s="1">
-        <v>41730</v>
-      </c>
-      <c r="L93" s="6">
-        <v>103.85936</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>36923</v>
       </c>
@@ -2961,14 +2513,8 @@
       <c r="H94" s="6">
         <v>16.127649999999999</v>
       </c>
-      <c r="K94" s="1">
-        <v>41821</v>
-      </c>
-      <c r="L94" s="6">
-        <v>103.80887</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>36951</v>
       </c>
@@ -2993,14 +2539,8 @@
       <c r="H95" s="6">
         <v>16.1296</v>
       </c>
-      <c r="K95" s="1">
-        <v>41913</v>
-      </c>
-      <c r="L95" s="6">
-        <v>104.33736</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>36982</v>
       </c>
@@ -3025,14 +2565,8 @@
       <c r="H96" s="6">
         <v>16.314599999999999</v>
       </c>
-      <c r="K96" s="1">
-        <v>42005</v>
-      </c>
-      <c r="L96" s="6">
-        <v>103.53985</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>37012</v>
       </c>
@@ -3057,14 +2591,8 @@
       <c r="H97" s="6">
         <v>16.527360000000002</v>
       </c>
-      <c r="K97" s="1">
-        <v>42095</v>
-      </c>
-      <c r="L97" s="6">
-        <v>101.07695</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>37043</v>
       </c>
@@ -3089,14 +2617,8 @@
       <c r="H98" s="6">
         <v>16.399899999999999</v>
       </c>
-      <c r="K98" s="1">
-        <v>42186</v>
-      </c>
-      <c r="L98" s="6">
-        <v>99.41525</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>37073</v>
       </c>
@@ -3121,14 +2643,8 @@
       <c r="H99" s="6">
         <v>16.53407</v>
       </c>
-      <c r="K99" s="1">
-        <v>42278</v>
-      </c>
-      <c r="L99" s="6">
-        <v>98.648259999999993</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>37104</v>
       </c>
@@ -3153,14 +2669,8 @@
       <c r="H100" s="6">
         <v>16.720700000000001</v>
       </c>
-      <c r="K100" s="1">
-        <v>42370</v>
-      </c>
-      <c r="L100" s="6">
-        <v>97.191389999999998</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>37135</v>
       </c>
@@ -3185,14 +2695,8 @@
       <c r="H101" s="6">
         <v>16.60613</v>
       </c>
-      <c r="K101" s="1">
-        <v>42461</v>
-      </c>
-      <c r="L101" s="6">
-        <v>97.559880000000007</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>37165</v>
       </c>
@@ -3217,14 +2721,8 @@
       <c r="H102" s="6">
         <v>16.702310000000001</v>
       </c>
-      <c r="K102" s="1">
-        <v>42552</v>
-      </c>
-      <c r="L102" s="6">
-        <v>96.974019999999996</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>37196</v>
       </c>
@@ -3249,14 +2747,8 @@
       <c r="H103" s="6">
         <v>16.743780000000001</v>
       </c>
-      <c r="K103" s="1">
-        <v>42644</v>
-      </c>
-      <c r="L103" s="6">
-        <v>96.862160000000003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>37226</v>
       </c>
@@ -3281,14 +2773,8 @@
       <c r="H104" s="6">
         <v>16.40052</v>
       </c>
-      <c r="K104" s="1">
-        <v>42736</v>
-      </c>
-      <c r="L104" s="6">
-        <v>97.921999999999997</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>37257</v>
       </c>
@@ -3313,14 +2799,8 @@
       <c r="H105" s="6">
         <v>17.621379999999998</v>
       </c>
-      <c r="K105" s="1">
-        <v>42826</v>
-      </c>
-      <c r="L105" s="6">
-        <v>98.699860000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>37288</v>
       </c>
@@ -3345,14 +2825,8 @@
       <c r="H106" s="6">
         <v>17.707409999999999</v>
       </c>
-      <c r="K106" s="1">
-        <v>42917</v>
-      </c>
-      <c r="L106" s="6">
-        <v>98.908720000000002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>37316</v>
       </c>
@@ -3377,14 +2851,8 @@
       <c r="H107" s="6">
         <v>18.270209999999999</v>
       </c>
-      <c r="K107" s="1">
-        <v>43009</v>
-      </c>
-      <c r="L107" s="6">
-        <v>99.349500000000006</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>37347</v>
       </c>
@@ -3409,14 +2877,8 @@
       <c r="H108" s="6">
         <v>18.971409999999999</v>
       </c>
-      <c r="K108" s="1">
-        <v>43101</v>
-      </c>
-      <c r="L108" s="6">
-        <v>100.07859999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>37377</v>
       </c>
@@ -3441,14 +2903,8 @@
       <c r="H109" s="6">
         <v>19.418189999999999</v>
       </c>
-      <c r="K109" s="1">
-        <v>43191</v>
-      </c>
-      <c r="L109" s="6">
-        <v>99.972409999999996</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>37408</v>
       </c>
@@ -3473,14 +2929,8 @@
       <c r="H110" s="6">
         <v>20.26294</v>
       </c>
-      <c r="K110" s="1">
-        <v>43282</v>
-      </c>
-      <c r="L110" s="6">
-        <v>100.88189</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>37438</v>
       </c>
@@ -3505,14 +2955,8 @@
       <c r="H111" s="6">
         <v>21.261900000000001</v>
       </c>
-      <c r="K111" s="1">
-        <v>43374</v>
-      </c>
-      <c r="L111" s="6">
-        <v>100.52266</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>37469</v>
       </c>
@@ -3537,14 +2981,8 @@
       <c r="H112" s="6">
         <v>21.920919999999999</v>
       </c>
-      <c r="K112" s="1">
-        <v>43466</v>
-      </c>
-      <c r="L112" s="6">
-        <v>101.43978</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>37500</v>
       </c>
@@ -3569,14 +3007,8 @@
       <c r="H113" s="6">
         <v>21.70205</v>
       </c>
-      <c r="K113" s="1">
-        <v>43556</v>
-      </c>
-      <c r="L113" s="6">
-        <v>101.83991</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>37530</v>
       </c>
@@ -3601,14 +3033,8 @@
       <c r="H114" s="6">
         <v>22.578410000000002</v>
       </c>
-      <c r="K114" s="1">
-        <v>43647</v>
-      </c>
-      <c r="L114" s="6">
-        <v>101.72836</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>37561</v>
       </c>
@@ -3634,14 +3060,8 @@
       <c r="H115" s="6">
         <v>22.432379999999998</v>
       </c>
-      <c r="K115" s="1">
-        <v>43739</v>
-      </c>
-      <c r="L115" s="6">
-        <v>102.10017000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>37591</v>
       </c>
@@ -3667,14 +3087,8 @@
       <c r="H116" s="6">
         <v>22.229890000000001</v>
       </c>
-      <c r="K116" s="1">
-        <v>43831</v>
-      </c>
-      <c r="L116" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>37622</v>
       </c>
@@ -3700,14 +3114,8 @@
       <c r="H117" s="6">
         <v>22.15588</v>
       </c>
-      <c r="K117" s="1">
-        <v>43922</v>
-      </c>
-      <c r="L117" s="6">
-        <v>90.784930000000003</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>37653</v>
       </c>
@@ -3732,14 +3140,8 @@
       <c r="H118" s="6">
         <v>22.006070000000001</v>
       </c>
-      <c r="K118" s="1">
-        <v>44013</v>
-      </c>
-      <c r="L118" s="6">
-        <v>97.742469999999997</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>37681</v>
       </c>
@@ -3764,14 +3166,8 @@
       <c r="H119" s="6">
         <v>21.770510000000002</v>
       </c>
-      <c r="K119" s="1">
-        <v>44105</v>
-      </c>
-      <c r="L119" s="6">
-        <v>100.83355</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>37712</v>
       </c>
@@ -3797,7 +3193,7 @@
         <v>21.787669999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>37742</v>
       </c>
@@ -3823,7 +3219,7 @@
         <v>21.744319999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>37773</v>
       </c>
@@ -3849,7 +3245,7 @@
         <v>21.821079999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>37803</v>
       </c>
@@ -3875,7 +3271,7 @@
         <v>21.83108</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>37834</v>
       </c>
@@ -3901,7 +3297,7 @@
         <v>21.730730000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>37865</v>
       </c>
@@ -3927,7 +3323,7 @@
         <v>21.20804</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>37895</v>
       </c>
@@ -3953,7 +3349,7 @@
         <v>21.971309999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>37926</v>
       </c>
@@ -3979,7 +3375,7 @@
         <v>22.42482</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>37956</v>
       </c>
@@ -9735,4 +9131,835 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A18:B119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>35065</v>
+      </c>
+      <c r="B20" s="6">
+        <v>59.234929999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>35156</v>
+      </c>
+      <c r="B21" s="6">
+        <v>59.834530000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>35247</v>
+      </c>
+      <c r="B22" s="6">
+        <v>62.130420000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>35339</v>
+      </c>
+      <c r="B23" s="6">
+        <v>61.53416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>35431</v>
+      </c>
+      <c r="B24" s="6">
+        <v>62.184100000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>35521</v>
+      </c>
+      <c r="B25" s="6">
+        <v>62.461080000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>35612</v>
+      </c>
+      <c r="B26" s="6">
+        <v>63.2958</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>35704</v>
+      </c>
+      <c r="B27" s="6">
+        <v>63.823140000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>35796</v>
+      </c>
+      <c r="B28" s="6">
+        <v>62.575659999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>35886</v>
+      </c>
+      <c r="B29" s="6">
+        <v>63.57893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>35977</v>
+      </c>
+      <c r="B30" s="6">
+        <v>63.611609999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>36069</v>
+      </c>
+      <c r="B31" s="6">
+        <v>62.881950000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>36161</v>
+      </c>
+      <c r="B32" s="6">
+        <v>63.006010000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>36251</v>
+      </c>
+      <c r="B33" s="6">
+        <v>63.299729999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>36342</v>
+      </c>
+      <c r="B34" s="6">
+        <v>63.322209999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>36434</v>
+      </c>
+      <c r="B35" s="6">
+        <v>64.220659999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>36526</v>
+      </c>
+      <c r="B36" s="6">
+        <v>64.902979999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>36617</v>
+      </c>
+      <c r="B37" s="6">
+        <v>65.806939999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>36708</v>
+      </c>
+      <c r="B38" s="6">
+        <v>66.603870000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>36800</v>
+      </c>
+      <c r="B39" s="6">
+        <v>67.421340000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>36892</v>
+      </c>
+      <c r="B40" s="6">
+        <v>67.644750000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>36982</v>
+      </c>
+      <c r="B41" s="6">
+        <v>67.322630000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>37073</v>
+      </c>
+      <c r="B42" s="6">
+        <v>66.989429999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>37165</v>
+      </c>
+      <c r="B43" s="6">
+        <v>66.775149999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>37257</v>
+      </c>
+      <c r="B44" s="6">
+        <v>68.410169999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>37347</v>
+      </c>
+      <c r="B45" s="6">
+        <v>68.636650000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>37438</v>
+      </c>
+      <c r="B46" s="6">
+        <v>69.551670000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>37530</v>
+      </c>
+      <c r="B47" s="6">
+        <v>70.252510000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>37622</v>
+      </c>
+      <c r="B48" s="6">
+        <v>69.958939999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>37712</v>
+      </c>
+      <c r="B49" s="6">
+        <v>69.367279999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>37803</v>
+      </c>
+      <c r="B50" s="6">
+        <v>70.010769999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>37895</v>
+      </c>
+      <c r="B51" s="6">
+        <v>70.733350000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>37987</v>
+      </c>
+      <c r="B52" s="6">
+        <v>71.718860000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>38078</v>
+      </c>
+      <c r="B53" s="6">
+        <v>73.709689999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>38169</v>
+      </c>
+      <c r="B54" s="6">
+        <v>74.627920000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>38261</v>
+      </c>
+      <c r="B55" s="6">
+        <v>75.195689999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>38353</v>
+      </c>
+      <c r="B56" s="6">
+        <v>75.828140000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>38443</v>
+      </c>
+      <c r="B57" s="6">
+        <v>76.726070000000007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>38534</v>
+      </c>
+      <c r="B58" s="6">
+        <v>76.220650000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>38626</v>
+      </c>
+      <c r="B59" s="6">
+        <v>77.203509999999994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>38718</v>
+      </c>
+      <c r="B60" s="6">
+        <v>78.443290000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>38808</v>
+      </c>
+      <c r="B61" s="6">
+        <v>78.698040000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>38899</v>
+      </c>
+      <c r="B62" s="6">
+        <v>80.005430000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>38991</v>
+      </c>
+      <c r="B63" s="6">
+        <v>80.948210000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>39083</v>
+      </c>
+      <c r="B64" s="6">
+        <v>82.461089999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>39173</v>
+      </c>
+      <c r="B65" s="6">
+        <v>83.848269999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>39264</v>
+      </c>
+      <c r="B66" s="6">
+        <v>84.715860000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>39356</v>
+      </c>
+      <c r="B67" s="6">
+        <v>85.988280000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>39448</v>
+      </c>
+      <c r="B68" s="6">
+        <v>87.050520000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>39539</v>
+      </c>
+      <c r="B69" s="6">
+        <v>88.890150000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>39630</v>
+      </c>
+      <c r="B70" s="6">
+        <v>90.287499999999994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>39722</v>
+      </c>
+      <c r="B71" s="6">
+        <v>86.874660000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>39814</v>
+      </c>
+      <c r="B72" s="6">
+        <v>85.671880000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>39904</v>
+      </c>
+      <c r="B73" s="6">
+        <v>87.212469999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>39995</v>
+      </c>
+      <c r="B74" s="6">
+        <v>89.258160000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>40087</v>
+      </c>
+      <c r="B75" s="6">
+        <v>91.534610000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>40179</v>
+      </c>
+      <c r="B76" s="6">
+        <v>93.489419999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>40269</v>
+      </c>
+      <c r="B77" s="6">
+        <v>94.631860000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>40360</v>
+      </c>
+      <c r="B78" s="6">
+        <v>95.478859999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>40452</v>
+      </c>
+      <c r="B79" s="6">
+        <v>96.806169999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>40544</v>
+      </c>
+      <c r="B80" s="6">
+        <v>98.179029999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>40634</v>
+      </c>
+      <c r="B81" s="6">
+        <v>99.12576</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>40725</v>
+      </c>
+      <c r="B82" s="6">
+        <v>98.915819999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B83" s="6">
+        <v>99.799319999999994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B84" s="6">
+        <v>98.412220000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B85" s="6">
+        <v>100.16159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B86" s="6">
+        <v>101.91661000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>41183</v>
+      </c>
+      <c r="B87" s="6">
+        <v>101.88936</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>41275</v>
+      </c>
+      <c r="B88" s="6">
+        <v>102.43012</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>41365</v>
+      </c>
+      <c r="B89" s="6">
+        <v>103.93911</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>41456</v>
+      </c>
+      <c r="B90" s="6">
+        <v>104.38033</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>41548</v>
+      </c>
+      <c r="B91" s="6">
+        <v>104.52038</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B92" s="6">
+        <v>105.4383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B93" s="6">
+        <v>103.85936</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B94" s="6">
+        <v>103.80887</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B95" s="6">
+        <v>104.33736</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B96" s="6">
+        <v>103.53985</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B97" s="6">
+        <v>101.07695</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B98" s="6">
+        <v>99.41525</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B99" s="6">
+        <v>98.648259999999993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B100" s="6">
+        <v>97.191389999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B101" s="6">
+        <v>97.559880000000007</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B102" s="6">
+        <v>96.974019999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B103" s="6">
+        <v>96.862160000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B104" s="6">
+        <v>97.921999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B105" s="6">
+        <v>98.699860000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B106" s="6">
+        <v>98.908720000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B107" s="6">
+        <v>99.349500000000006</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B108" s="6">
+        <v>100.07859999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B109" s="6">
+        <v>99.972409999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B110" s="6">
+        <v>100.88189</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B111" s="6">
+        <v>100.52266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B112" s="6">
+        <v>101.43978</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B113" s="6">
+        <v>101.83991</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B114" s="6">
+        <v>101.72836</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B115" s="6">
+        <v>102.10017000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B116" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B117" s="6">
+        <v>90.784930000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B118" s="6">
+        <v>97.742469999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B119" s="6">
+        <v>100.83355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>